--- a/reverseprimer-v3_27.xlsx
+++ b/reverseprimer-v3_27.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_27" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2497-TCTACAGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACAGGACGTCTCGTGGGCTCGG</t>
+    <t>R2497-ACTCACAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCACAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2498-AAGCTGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGTTGCGTCTCGTGGGCTCGG</t>
+    <t>R2498-TTGAGAAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGAAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2499-GTACTGCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTGCTCTGTCTCGTGGGCTCGG</t>
+    <t>R2499-AGATGTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2500-GTACTGAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACTGAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2500-TGCAACCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAACCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2501-TTGCAACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGCAACAGAGTCTCGTGGGCTCGG</t>
+    <t>R2501-GTACGAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGAGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2502-AACGTAGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTAGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2502-GTACACCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACACCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2503-CCTCGAAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCGAAGTTGTCTCGTGGGCTCGG</t>
+    <t>R2503-AACTCTCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCTCACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2504-TGGTCCTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTCCTTGAGTCTCGTGGGCTCGG</t>
+    <t>R2504-ATCTCTGTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCTGTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2505-ACAGAACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2505-GAAGGTACAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTACATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2506-GAAGGTGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGGTGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2506-TCTCGTTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2507-TGGACATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGACATCTCGTCTCGTGGGCTCGG</t>
+    <t>R2507-TACACTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2508-TGCAAGTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGTGTTGTCTCGTGGGCTCGG</t>
+    <t>R2508-GTTCATGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCATGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2509-TACGTGGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTGGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2509-TACCACACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCACACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2510-ACTCACAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCACAGCTGTCTCGTGGGCTCGG</t>
+    <t>R2510-GTTGAGGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGAGGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2511-AACACCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACCAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2511-CGACCTTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGACCTTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2512-GAGTACACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTACACTGGTCTCGTGGGCTCGG</t>
+    <t>R2512-AGTCTTGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCTTGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2513-TGAACACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACACGTTGTCTCGTGGGCTCGG</t>
+    <t>R2513-ATGCAACTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAACTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2514-TTCAGGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGGAACGGTCTCGTGGGCTCGG</t>
+    <t>R2514-TAGACTGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGACTGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2515-AGGAACTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAACTACAGTCTCGTGGGCTCGG</t>
+    <t>R2515-AAGAGACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGACCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2516-CTGAGTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGAGTACACGTCTCGTGGGCTCGG</t>
+    <t>R2516-AACACAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACACAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2517-AGGTAGAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTAGAACCGTCTCGTGGGCTCGG</t>
+    <t>R2517-AGTAGACGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGACGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2518-GAGTCTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTCTACGTGTCTCGTGGGCTCGG</t>
+    <t>R2518-ACTAGGTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGGTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2519-AACAAGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGGAAGGTCTCGTGGGCTCGG</t>
+    <t>R2519-ACACTGTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTGTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2520-ACATCCTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCCTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2520-TCTTCCTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTCCTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2521-GAGTTCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2521-ACCTACTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTACTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2522-AACAAGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAAGTCTGGTCTCGTGGGCTCGG</t>
+    <t>R2522-GTGTTCCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTTCCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2523-GTACATGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACATGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2523-GATCCACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCCACCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2524-ATGGTAGAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGTAGAGCGTCTCGTGGGCTCGG</t>
+    <t>R2524-CGAAGGAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGGAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2525-ACTTCCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTTCCAACCGTCTCGTGGGCTCGG</t>
+    <t>R2525-CGAAGAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAAGAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2526-TCATCACCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCACCAGGTCTCGTGGGCTCGG</t>
+    <t>R2526-CTTGACCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGACCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2527-TCGTCACGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTCACGATGTCTCGTGGGCTCGG</t>
+    <t>R2527-TAGTCAGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCAGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2528-GCTTGAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTGAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2528-GGATCACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATCACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2529-TAGGTTGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGTTGTGGGTCTCGTGGGCTCGG</t>
+    <t>R2529-TGTACTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTACTCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2530-TGGTGCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTGCATGTGTCTCGTGGGCTCGG</t>
+    <t>R2530-CAGATCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGATCAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2531-TGACTCTCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTCTCCTGTCTCGTGGGCTCGG</t>
+    <t>R2531-ACTCTAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTAGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2532-TCGTAGCAAC</t>
+    <t>R2532-CAACGTGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACGTGTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R2533-TCAACTGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAACTGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R2534-GCTACAACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTACAACTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R2535-AGTCACCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCACCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R2536-ATGGACCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGACCATGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R2537-CAAGACTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGACTAGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R2538-GCTTGTAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTTGTAGCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R2539-ACCTACCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTACCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R2540-TGGTGTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTGTACTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R2541-CACATCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACATCTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R2542-GATGTAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTAGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R2543-CTAGTACTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGTACTCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R2544-AACGACCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGACCTCTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R2545-CAAGTGCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTGCTACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R2546-CGAGTACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGAGTACTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R2547-GTTCGTTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCGTTGAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R2548-AACCTCATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTCATGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R2549-GTGCATGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCATGGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R2550-CAGAGTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGAGTCTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R2551-ACCAACTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAACTAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>R2552-TCGTAGCAAC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATTCGTAGCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R2533-CCTAGAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTAGAGCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R2534-TAGAGGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGGAGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R2535-GCATGTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGTCGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R2536-AACCATCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCATCTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R2537-TGCACGTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCACGTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R2538-ACACACTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACTGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R2539-GTCAGTAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAGTAGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R2540-TGCTCAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCAGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R2541-CACACTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACACTGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R2542-GTGGAACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGAACGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R2543-GTCACTCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCACTCTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R2544-AACACAACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACAACACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R2545-GGAAGGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGGACAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R2546-TGCTTCTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTTCTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R2547-ACACGTTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACGTTGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R2548-TTCTGAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGAGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R2549-CGTCACATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCACATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R2550-TCTGCACTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGCACTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R2551-AACCTGTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTGTCGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>R2552-GGAGCTTGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAGCTTGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2553-TCAACCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2553-AAGACGTTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACGTTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2554-GATGAACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGAACGTAGTCTCGTGGGCTCGG</t>
+    <t>R2554-AAGTACAGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTACAGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2555-TACGTCAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTCAAGCGTCTCGTGGGCTCGG</t>
+    <t>R2555-GTAGGATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGGATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2556-GTGGATGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGGATGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2556-TAGTCTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2557-GCACATCTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCACATCTGTGTCTCGTGGGCTCGG</t>
+    <t>R2557-TTCACAGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACAGTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2558-CTAGGTTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGGTTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2558-CTGTAGTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTAGTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2559-GAGGTCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGGTCAGTTGTCTCGTGGGCTCGG</t>
+    <t>R2559-AGGAGAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAGAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R2560-TCACATCCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACATCCTGGTCTCGTGGGCTCGG</t>
+    <t>R2560-CTCATGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCATGTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R2561-TGTACTCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTACTCTCAGTCTCGTGGGCTCGG</t>
+    <t>R2561-TGGTCATCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGTCATCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R2562-GGTAGAGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTAGAGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2562-CTACGTGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACGTGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R2563-TCGAGTAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAGTAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2563-TCACAGTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACAGTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R2564-GGATCCATCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCCATCAGTCTCGTGGGCTCGG</t>
+    <t>R2564-AAGACCATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACCATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R2565-AACGATCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGATCAAGGTCTCGTGGGCTCGG</t>
+    <t>R2565-TCATGAGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGAGCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R2566-AGCTCTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTCTCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2566-AGGACAGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGACAGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R2567-GCATCAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCAGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2567-TAGAGAGCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGAGCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R2568-GTGAGTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAGTGTGTGTCTCGTGGGCTCGG</t>
+    <t>R2568-AGTCAAGCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAAGCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R2569-CATGAACCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGAACCAAGTCTCGTGGGCTCGG</t>
+    <t>R2569-ATCCTGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTGTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R2570-CTACCTTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCTTGGAGTCTCGTGGGCTCGG</t>
+    <t>R2570-ACACTACTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTACTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R2571-AGTCACAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCACAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2571-TTCCAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCCAGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R2572-CGTGAAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGAAGTACGTCTCGTGGGCTCGG</t>
+    <t>R2572-TACTCACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACTCACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R2573-ATGTCTGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCTGAAGGTCTCGTGGGCTCGG</t>
+    <t>R2573-CCTGATCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTGATCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R2574-AAGTAGGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTAGGACAGTCTCGTGGGCTCGG</t>
+    <t>R2574-TTGAGGACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R2575-AGTACCTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTACCTCTCGTCTCGTGGGCTCGG</t>
+    <t>R2575-TCAGACATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGACATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R2576-AGTGATGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGATGGAAGTCTCGTGGGCTCGG</t>
+    <t>R2576-CTCCAGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCAGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2577-CGTTCTGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTCTGGAAGTCTCGTGGGCTCGG</t>
+    <t>R2577-ACAGTCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTCATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2578-GTCACACTTC</t>
+    <t>R2578-TGATGGATCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGGATCCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R2579-GTAGCAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCAGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R2580-ACACTACCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTACCACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R2581-CATGGAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGGAGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>R2582-GTCCAACCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCCAACCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>R2583-CTCAGATGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGATGTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>R2584-ATCTTCTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTTCTCGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>R2585-TCATGTGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGTGACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>R2586-ACAGGTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGGTACACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>R2587-TCACACCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACACCAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>R2588-AGGTTCCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>R2589-GTGTGTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>R2590-AGAAGCACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAAGCACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>R2591-TTGACCTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGACCTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>R2592-GTCACACTTC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATGTCACACTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R2579-GTCTGAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTGAGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R2580-CGACTAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGACTAGACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R2581-GTAGACGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGACGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>R2582-TGGTTCAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCAGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>R2583-TGAGATCTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGATCTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>R2584-CATCACGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCACGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>R2585-GACACACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACACACTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>R2586-AAGCTGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTGACAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>R2587-AACAACAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>R2588-CGTTGACTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGACTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>R2589-TCGACAAGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGACAAGTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>R2590-TCGAACGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAACGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>R2591-ACGTCAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTCAGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>R2592-GTCCACTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCCACTAGAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
